--- a/Shablon/E20-10.xlsx
+++ b/Shablon/E20-10.xlsx
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="95">
   <si>
     <t>Заказчик :</t>
   </si>
@@ -525,13 +513,13 @@
     </r>
   </si>
   <si>
-    <t>Уникальный номер об аккредитации в реестре аккредитованных лиц № РОСС СОБ 3.00231.2014</t>
+    <t>TITLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1439,6 +1427,147 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,149 +1588,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1911,7 +1899,7 @@
   <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,149 +1909,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
+      <c r="A3" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="147"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -2076,24 +2056,24 @@
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
+      <c r="A7" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
       <c r="M7" s="31"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="24"/>
@@ -2128,7 +2108,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="33"/>
@@ -2150,7 +2130,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2162,7 +2142,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2174,7 +2154,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2201,27 +2181,27 @@
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="A15" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
@@ -2233,25 +2213,25 @@
       <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
+      <c r="A16" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -2263,25 +2243,25 @@
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
+      <c r="A17" s="132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -2293,25 +2273,25 @@
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
+      <c r="A18" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -2323,25 +2303,25 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
+      <c r="A19" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -2353,25 +2333,25 @@
       <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
+      <c r="A20" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -2384,7 +2364,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2396,7 +2376,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2408,7 +2388,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -2420,165 +2400,165 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="98"/>
+      <c r="A26" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="145"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U27" s="90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T28" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2774,158 +2754,158 @@
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="98"/>
+      <c r="A37" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="145"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="D38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="Q38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="R38" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R38" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="S38" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U38" s="90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T39" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3052,158 +3032,158 @@
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="98"/>
+      <c r="A45" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
+      <c r="S45" s="144"/>
+      <c r="T45" s="144"/>
+      <c r="U45" s="145"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U46" s="90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T47" s="53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3331,7 +3311,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3386,141 +3366,141 @@
       <c r="Y54" s="5"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="O55" s="116"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="116"/>
-      <c r="W55" s="117"/>
+      <c r="A55" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="127"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="5"/>
     </row>
     <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="121" t="s">
+      <c r="A56" s="95"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="119" t="s">
+      <c r="O56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="I56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="119" t="s">
+      <c r="S56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="119" t="s">
+      <c r="U56" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="M56" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="O56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="P56" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="R56" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="S56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="T56" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="U56" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="V56" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="W56" s="128" t="s">
-        <v>10</v>
+      <c r="W56" s="120" t="s">
+        <v>6</v>
       </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="129"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="115"/>
+      <c r="M57" s="121"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="115"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="115"/>
+      <c r="S57" s="115"/>
+      <c r="T57" s="115"/>
+      <c r="U57" s="115"/>
+      <c r="V57" s="115"/>
+      <c r="W57" s="121"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="147">
+      <c r="A58" s="94">
         <v>1</v>
       </c>
-      <c r="B58" s="125">
+      <c r="B58" s="97">
         <v>10000</v>
       </c>
       <c r="C58" s="80">
@@ -3550,8 +3530,8 @@
       <c r="Y58" s="5"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
-      <c r="B59" s="126"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="11">
         <v>20</v>
       </c>
@@ -3579,8 +3559,8 @@
       <c r="Y59" s="5"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
-      <c r="B60" s="126"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="98"/>
       <c r="C60" s="11">
         <v>300</v>
       </c>
@@ -3608,8 +3588,8 @@
       <c r="Y60" s="5"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
-      <c r="B61" s="126"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="98"/>
       <c r="C61" s="11">
         <v>500</v>
       </c>
@@ -3637,8 +3617,8 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
-      <c r="B62" s="126"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="11">
         <v>1000</v>
       </c>
@@ -3666,8 +3646,8 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
-      <c r="B63" s="126"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="81">
         <v>2000</v>
       </c>
@@ -3695,8 +3675,8 @@
       <c r="Y63" s="5"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="148"/>
-      <c r="B64" s="127"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="99"/>
       <c r="C64" s="12">
         <v>4900</v>
       </c>
@@ -3751,119 +3731,119 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="95"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="118"/>
-      <c r="Y66" s="118"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
-      <c r="B67" s="131"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="M67" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N67" s="140"/>
-      <c r="O67" s="141"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="141"/>
-      <c r="T67" s="133"/>
-      <c r="U67" s="141"/>
-      <c r="V67" s="142"/>
-      <c r="W67" s="141"/>
-      <c r="X67" s="141"/>
-      <c r="Y67" s="141"/>
+      <c r="F67" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M67" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="122"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="123"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="124"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="93"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="139"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="129"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="141"/>
-      <c r="P68" s="133"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="133"/>
-      <c r="S68" s="141"/>
-      <c r="T68" s="133"/>
-      <c r="U68" s="141"/>
-      <c r="V68" s="142"/>
-      <c r="W68" s="141"/>
-      <c r="X68" s="141"/>
-      <c r="Y68" s="141"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="93"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="93"/>
+      <c r="V68" s="124"/>
+      <c r="W68" s="93"/>
+      <c r="X68" s="93"/>
+      <c r="Y68" s="93"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="147">
+      <c r="A69" s="94">
         <v>1</v>
       </c>
-      <c r="B69" s="125">
+      <c r="B69" s="97">
         <v>10000</v>
       </c>
       <c r="C69" s="80">
@@ -3893,8 +3873,8 @@
       <c r="Y69" s="76"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
-      <c r="B70" s="126"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="11">
         <v>20</v>
       </c>
@@ -3922,8 +3902,8 @@
       <c r="Y70" s="76"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
-      <c r="B71" s="126"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="11">
         <v>300</v>
       </c>
@@ -3951,8 +3931,8 @@
       <c r="Y71" s="76"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="107"/>
-      <c r="B72" s="126"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="11">
         <v>500</v>
       </c>
@@ -3980,8 +3960,8 @@
       <c r="Y72" s="76"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
-      <c r="B73" s="126"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="11">
         <v>1000</v>
       </c>
@@ -4009,8 +3989,8 @@
       <c r="Y73" s="76"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
-      <c r="B74" s="126"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="98"/>
       <c r="C74" s="81">
         <v>2000</v>
       </c>
@@ -4038,8 +4018,8 @@
       <c r="Y74" s="76"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="148"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="12">
         <v>4900</v>
       </c>
@@ -4094,141 +4074,141 @@
       <c r="Y76" s="5"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="O77" s="116"/>
-      <c r="P77" s="116"/>
-      <c r="Q77" s="116"/>
-      <c r="R77" s="116"/>
-      <c r="S77" s="116"/>
-      <c r="T77" s="116"/>
-      <c r="U77" s="116"/>
-      <c r="V77" s="116"/>
-      <c r="W77" s="117"/>
+      <c r="A77" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="O77" s="126"/>
+      <c r="P77" s="126"/>
+      <c r="Q77" s="126"/>
+      <c r="R77" s="126"/>
+      <c r="S77" s="126"/>
+      <c r="T77" s="126"/>
+      <c r="U77" s="126"/>
+      <c r="V77" s="126"/>
+      <c r="W77" s="127"/>
       <c r="X77" s="10"/>
       <c r="Y77" s="5"/>
     </row>
     <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="107"/>
-      <c r="B78" s="131"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="121" t="s">
+      <c r="A78" s="95"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="M78" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="G78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="119" t="s">
+      <c r="O78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="R78" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="I78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J78" s="119" t="s">
+      <c r="S78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="T78" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="K78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" s="119" t="s">
+      <c r="U78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="V78" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="M78" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N78" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="P78" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="R78" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="S78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="T78" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="U78" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="V78" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="W78" s="128" t="s">
-        <v>10</v>
+      <c r="W78" s="120" t="s">
+        <v>6</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="5"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="108"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="122"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="120"/>
-      <c r="K79" s="120"/>
-      <c r="L79" s="120"/>
-      <c r="M79" s="129"/>
-      <c r="N79" s="124"/>
-      <c r="O79" s="120"/>
-      <c r="P79" s="139"/>
-      <c r="Q79" s="120"/>
-      <c r="R79" s="120"/>
-      <c r="S79" s="120"/>
-      <c r="T79" s="120"/>
-      <c r="U79" s="120"/>
-      <c r="V79" s="120"/>
-      <c r="W79" s="129"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="M79" s="121"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="115"/>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="115"/>
+      <c r="R79" s="115"/>
+      <c r="S79" s="115"/>
+      <c r="T79" s="115"/>
+      <c r="U79" s="115"/>
+      <c r="V79" s="115"/>
+      <c r="W79" s="121"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="147">
+      <c r="A80" s="94">
         <v>2</v>
       </c>
-      <c r="B80" s="125">
+      <c r="B80" s="97">
         <v>10000</v>
       </c>
       <c r="C80" s="80">
@@ -4258,8 +4238,8 @@
       <c r="Y80" s="5"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="107"/>
-      <c r="B81" s="126"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="11">
         <v>20</v>
       </c>
@@ -4287,8 +4267,8 @@
       <c r="Y81" s="5"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="107"/>
-      <c r="B82" s="126"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="11">
         <v>300</v>
       </c>
@@ -4316,8 +4296,8 @@
       <c r="Y82" s="5"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="107"/>
-      <c r="B83" s="126"/>
+      <c r="A83" s="95"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="11">
         <v>500</v>
       </c>
@@ -4345,8 +4325,8 @@
       <c r="Y83" s="5"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="107"/>
-      <c r="B84" s="126"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="11">
         <v>1000</v>
       </c>
@@ -4374,8 +4354,8 @@
       <c r="Y84" s="5"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="107"/>
-      <c r="B85" s="126"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="81">
         <v>2000</v>
       </c>
@@ -4403,8 +4383,8 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="148"/>
-      <c r="B86" s="127"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="12">
         <v>4900</v>
       </c>
@@ -4459,119 +4439,119 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="109"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="109"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109"/>
+      <c r="K88" s="109"/>
+      <c r="L88" s="109"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="111"/>
+      <c r="O88" s="111"/>
+      <c r="P88" s="111"/>
+      <c r="Q88" s="111"/>
+      <c r="R88" s="111"/>
+      <c r="S88" s="111"/>
+      <c r="T88" s="111"/>
+      <c r="U88" s="111"/>
+      <c r="V88" s="111"/>
+      <c r="W88" s="111"/>
+      <c r="X88" s="111"/>
+      <c r="Y88" s="111"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89" s="95"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="113"/>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="113"/>
-      <c r="K88" s="113"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="118"/>
-      <c r="O88" s="118"/>
-      <c r="P88" s="118"/>
-      <c r="Q88" s="118"/>
-      <c r="R88" s="118"/>
-      <c r="S88" s="118"/>
-      <c r="T88" s="118"/>
-      <c r="U88" s="118"/>
-      <c r="V88" s="118"/>
-      <c r="W88" s="118"/>
-      <c r="X88" s="118"/>
-      <c r="Y88" s="118"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I89" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="K89" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="M89" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N89" s="140"/>
-      <c r="O89" s="141"/>
-      <c r="P89" s="133"/>
-      <c r="Q89" s="141"/>
-      <c r="R89" s="133"/>
-      <c r="S89" s="141"/>
-      <c r="T89" s="133"/>
-      <c r="U89" s="141"/>
-      <c r="V89" s="142"/>
-      <c r="W89" s="141"/>
-      <c r="X89" s="141"/>
-      <c r="Y89" s="141"/>
+      <c r="F89" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" s="122"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="123"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="123"/>
+      <c r="S89" s="93"/>
+      <c r="T89" s="123"/>
+      <c r="U89" s="93"/>
+      <c r="V89" s="124"/>
+      <c r="W89" s="93"/>
+      <c r="X89" s="93"/>
+      <c r="Y89" s="93"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="108"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="139"/>
-      <c r="I90" s="120"/>
-      <c r="J90" s="139"/>
-      <c r="K90" s="120"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="129"/>
-      <c r="N90" s="140"/>
-      <c r="O90" s="141"/>
-      <c r="P90" s="133"/>
-      <c r="Q90" s="141"/>
-      <c r="R90" s="133"/>
-      <c r="S90" s="141"/>
-      <c r="T90" s="133"/>
-      <c r="U90" s="141"/>
-      <c r="V90" s="142"/>
-      <c r="W90" s="141"/>
-      <c r="X90" s="141"/>
-      <c r="Y90" s="141"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="113"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="115"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="115"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="121"/>
+      <c r="N90" s="122"/>
+      <c r="O90" s="93"/>
+      <c r="P90" s="123"/>
+      <c r="Q90" s="93"/>
+      <c r="R90" s="123"/>
+      <c r="S90" s="93"/>
+      <c r="T90" s="123"/>
+      <c r="U90" s="93"/>
+      <c r="V90" s="124"/>
+      <c r="W90" s="93"/>
+      <c r="X90" s="93"/>
+      <c r="Y90" s="93"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="147">
+      <c r="A91" s="94">
         <v>2</v>
       </c>
-      <c r="B91" s="125">
+      <c r="B91" s="97">
         <v>10000</v>
       </c>
       <c r="C91" s="80">
@@ -4601,8 +4581,8 @@
       <c r="Y91" s="76"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="107"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="11">
         <v>20</v>
       </c>
@@ -4630,8 +4610,8 @@
       <c r="Y92" s="76"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="107"/>
-      <c r="B93" s="126"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="11">
         <v>300</v>
       </c>
@@ -4659,8 +4639,8 @@
       <c r="Y93" s="76"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="107"/>
-      <c r="B94" s="126"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="11">
         <v>500</v>
       </c>
@@ -4688,8 +4668,8 @@
       <c r="Y94" s="76"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="107"/>
-      <c r="B95" s="126"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="98"/>
       <c r="C95" s="11">
         <v>1000</v>
       </c>
@@ -4717,8 +4697,8 @@
       <c r="Y95" s="76"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="107"/>
-      <c r="B96" s="126"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="81">
         <v>2000</v>
       </c>
@@ -4746,8 +4726,8 @@
       <c r="Y96" s="76"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="148"/>
-      <c r="B97" s="127"/>
+      <c r="A97" s="96"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="12">
         <v>4900</v>
       </c>
@@ -4801,141 +4781,141 @@
       <c r="X98" s="5"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="113"/>
-      <c r="H99" s="113"/>
-      <c r="I99" s="113"/>
-      <c r="J99" s="113"/>
-      <c r="K99" s="113"/>
-      <c r="L99" s="113"/>
-      <c r="M99" s="114"/>
-      <c r="N99" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="O99" s="116"/>
-      <c r="P99" s="116"/>
-      <c r="Q99" s="116"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="116"/>
-      <c r="T99" s="116"/>
-      <c r="U99" s="116"/>
-      <c r="V99" s="116"/>
-      <c r="W99" s="117"/>
+      <c r="A99" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="109"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="109"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="109"/>
+      <c r="L99" s="109"/>
+      <c r="M99" s="110"/>
+      <c r="N99" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="O99" s="126"/>
+      <c r="P99" s="126"/>
+      <c r="Q99" s="126"/>
+      <c r="R99" s="126"/>
+      <c r="S99" s="126"/>
+      <c r="T99" s="126"/>
+      <c r="U99" s="126"/>
+      <c r="V99" s="126"/>
+      <c r="W99" s="127"/>
       <c r="X99" s="10"/>
       <c r="Y99" s="5"/>
     </row>
     <row r="100" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="107"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="121" t="s">
+      <c r="A100" s="95"/>
+      <c r="B100" s="103"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="M100" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N100" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="G100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="119" t="s">
+      <c r="O100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="P100" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="R100" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="I100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="119" t="s">
+      <c r="S100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="T100" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="K100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="119" t="s">
+      <c r="U100" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="V100" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="M100" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N100" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="O100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="P100" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="R100" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="S100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="T100" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="U100" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="V100" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="W100" s="128" t="s">
-        <v>10</v>
+      <c r="W100" s="120" t="s">
+        <v>6</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="108"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="120"/>
-      <c r="F101" s="120"/>
-      <c r="G101" s="120"/>
-      <c r="H101" s="120"/>
-      <c r="I101" s="120"/>
-      <c r="J101" s="120"/>
-      <c r="K101" s="120"/>
-      <c r="L101" s="120"/>
-      <c r="M101" s="129"/>
-      <c r="N101" s="124"/>
-      <c r="O101" s="120"/>
-      <c r="P101" s="139"/>
-      <c r="Q101" s="120"/>
-      <c r="R101" s="120"/>
-      <c r="S101" s="120"/>
-      <c r="T101" s="120"/>
-      <c r="U101" s="120"/>
-      <c r="V101" s="120"/>
-      <c r="W101" s="129"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="115"/>
+      <c r="F101" s="115"/>
+      <c r="G101" s="115"/>
+      <c r="H101" s="115"/>
+      <c r="I101" s="115"/>
+      <c r="J101" s="115"/>
+      <c r="K101" s="115"/>
+      <c r="L101" s="115"/>
+      <c r="M101" s="121"/>
+      <c r="N101" s="131"/>
+      <c r="O101" s="115"/>
+      <c r="P101" s="119"/>
+      <c r="Q101" s="115"/>
+      <c r="R101" s="115"/>
+      <c r="S101" s="115"/>
+      <c r="T101" s="115"/>
+      <c r="U101" s="115"/>
+      <c r="V101" s="115"/>
+      <c r="W101" s="121"/>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="147">
+      <c r="A102" s="94">
         <v>3</v>
       </c>
-      <c r="B102" s="125">
+      <c r="B102" s="97">
         <v>10000</v>
       </c>
       <c r="C102" s="80">
@@ -4965,8 +4945,8 @@
       <c r="Y102" s="5"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="107"/>
-      <c r="B103" s="126"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="11">
         <v>20</v>
       </c>
@@ -4994,8 +4974,8 @@
       <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="126"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="98"/>
       <c r="C104" s="11">
         <v>300</v>
       </c>
@@ -5023,8 +5003,8 @@
       <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="107"/>
-      <c r="B105" s="126"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="98"/>
       <c r="C105" s="11">
         <v>500</v>
       </c>
@@ -5052,8 +5032,8 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="107"/>
-      <c r="B106" s="126"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="11">
         <v>1000</v>
       </c>
@@ -5081,8 +5061,8 @@
       <c r="Y106" s="5"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="107"/>
-      <c r="B107" s="126"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="98"/>
       <c r="C107" s="81">
         <v>2000</v>
       </c>
@@ -5110,8 +5090,8 @@
       <c r="Y107" s="5"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="148"/>
-      <c r="B108" s="127"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="12">
         <v>4900</v>
       </c>
@@ -5166,119 +5146,119 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="106" t="s">
+      <c r="A110" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="109"/>
+      <c r="F110" s="109"/>
+      <c r="G110" s="109"/>
+      <c r="H110" s="109"/>
+      <c r="I110" s="109"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="109"/>
+      <c r="L110" s="109"/>
+      <c r="M110" s="110"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="111"/>
+      <c r="S110" s="111"/>
+      <c r="T110" s="111"/>
+      <c r="U110" s="111"/>
+      <c r="V110" s="111"/>
+      <c r="W110" s="111"/>
+      <c r="X110" s="111"/>
+      <c r="Y110" s="111"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" s="95"/>
+      <c r="B111" s="103"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="113"/>
-      <c r="F110" s="113"/>
-      <c r="G110" s="113"/>
-      <c r="H110" s="113"/>
-      <c r="I110" s="113"/>
-      <c r="J110" s="113"/>
-      <c r="K110" s="113"/>
-      <c r="L110" s="113"/>
-      <c r="M110" s="114"/>
-      <c r="N110" s="118"/>
-      <c r="O110" s="118"/>
-      <c r="P110" s="118"/>
-      <c r="Q110" s="118"/>
-      <c r="R110" s="118"/>
-      <c r="S110" s="118"/>
-      <c r="T110" s="118"/>
-      <c r="U110" s="118"/>
-      <c r="V110" s="118"/>
-      <c r="W110" s="118"/>
-      <c r="X110" s="118"/>
-      <c r="Y110" s="118"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="107"/>
-      <c r="B111" s="131"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="G111" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I111" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J111" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="K111" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L111" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="M111" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N111" s="140"/>
-      <c r="O111" s="141"/>
-      <c r="P111" s="133"/>
-      <c r="Q111" s="141"/>
-      <c r="R111" s="133"/>
-      <c r="S111" s="141"/>
-      <c r="T111" s="133"/>
-      <c r="U111" s="141"/>
-      <c r="V111" s="142"/>
-      <c r="W111" s="141"/>
-      <c r="X111" s="141"/>
-      <c r="Y111" s="141"/>
+      <c r="F111" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K111" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M111" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N111" s="122"/>
+      <c r="O111" s="93"/>
+      <c r="P111" s="123"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="123"/>
+      <c r="S111" s="93"/>
+      <c r="T111" s="123"/>
+      <c r="U111" s="93"/>
+      <c r="V111" s="124"/>
+      <c r="W111" s="93"/>
+      <c r="X111" s="93"/>
+      <c r="Y111" s="93"/>
     </row>
     <row r="112" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="108"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="137"/>
-      <c r="E112" s="120"/>
-      <c r="F112" s="135"/>
-      <c r="G112" s="120"/>
-      <c r="H112" s="139"/>
-      <c r="I112" s="120"/>
-      <c r="J112" s="139"/>
-      <c r="K112" s="120"/>
-      <c r="L112" s="120"/>
-      <c r="M112" s="129"/>
-      <c r="N112" s="140"/>
-      <c r="O112" s="141"/>
-      <c r="P112" s="133"/>
-      <c r="Q112" s="141"/>
-      <c r="R112" s="133"/>
-      <c r="S112" s="141"/>
-      <c r="T112" s="133"/>
-      <c r="U112" s="141"/>
-      <c r="V112" s="142"/>
-      <c r="W112" s="141"/>
-      <c r="X112" s="141"/>
-      <c r="Y112" s="141"/>
+      <c r="A112" s="101"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="107"/>
+      <c r="D112" s="113"/>
+      <c r="E112" s="115"/>
+      <c r="F112" s="117"/>
+      <c r="G112" s="115"/>
+      <c r="H112" s="119"/>
+      <c r="I112" s="115"/>
+      <c r="J112" s="119"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="115"/>
+      <c r="M112" s="121"/>
+      <c r="N112" s="122"/>
+      <c r="O112" s="93"/>
+      <c r="P112" s="123"/>
+      <c r="Q112" s="93"/>
+      <c r="R112" s="123"/>
+      <c r="S112" s="93"/>
+      <c r="T112" s="123"/>
+      <c r="U112" s="93"/>
+      <c r="V112" s="124"/>
+      <c r="W112" s="93"/>
+      <c r="X112" s="93"/>
+      <c r="Y112" s="93"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="147">
+      <c r="A113" s="94">
         <v>3</v>
       </c>
-      <c r="B113" s="125">
+      <c r="B113" s="97">
         <v>10000</v>
       </c>
       <c r="C113" s="80">
@@ -5308,8 +5288,8 @@
       <c r="Y113" s="76"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="107"/>
-      <c r="B114" s="126"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="98"/>
       <c r="C114" s="11">
         <v>20</v>
       </c>
@@ -5337,8 +5317,8 @@
       <c r="Y114" s="76"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="107"/>
-      <c r="B115" s="126"/>
+      <c r="A115" s="95"/>
+      <c r="B115" s="98"/>
       <c r="C115" s="11">
         <v>300</v>
       </c>
@@ -5366,8 +5346,8 @@
       <c r="Y115" s="76"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="107"/>
-      <c r="B116" s="126"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="98"/>
       <c r="C116" s="11">
         <v>500</v>
       </c>
@@ -5395,8 +5375,8 @@
       <c r="Y116" s="76"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="107"/>
-      <c r="B117" s="126"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="98"/>
       <c r="C117" s="11">
         <v>1000</v>
       </c>
@@ -5424,8 +5404,8 @@
       <c r="Y117" s="76"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="107"/>
-      <c r="B118" s="126"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="98"/>
       <c r="C118" s="81">
         <v>2000</v>
       </c>
@@ -5453,8 +5433,8 @@
       <c r="Y118" s="76"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="148"/>
-      <c r="B119" s="127"/>
+      <c r="A119" s="96"/>
+      <c r="B119" s="99"/>
       <c r="C119" s="12">
         <v>4900</v>
       </c>
@@ -5509,141 +5489,141 @@
       <c r="Y120" s="76"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E121" s="113"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="113"/>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="113"/>
-      <c r="K121" s="113"/>
-      <c r="L121" s="113"/>
-      <c r="M121" s="114"/>
-      <c r="N121" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="O121" s="116"/>
-      <c r="P121" s="116"/>
-      <c r="Q121" s="116"/>
-      <c r="R121" s="116"/>
-      <c r="S121" s="116"/>
-      <c r="T121" s="116"/>
-      <c r="U121" s="116"/>
-      <c r="V121" s="116"/>
-      <c r="W121" s="117"/>
+      <c r="A121" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="109"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="109"/>
+      <c r="H121" s="109"/>
+      <c r="I121" s="109"/>
+      <c r="J121" s="109"/>
+      <c r="K121" s="109"/>
+      <c r="L121" s="109"/>
+      <c r="M121" s="110"/>
+      <c r="N121" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="O121" s="126"/>
+      <c r="P121" s="126"/>
+      <c r="Q121" s="126"/>
+      <c r="R121" s="126"/>
+      <c r="S121" s="126"/>
+      <c r="T121" s="126"/>
+      <c r="U121" s="126"/>
+      <c r="V121" s="126"/>
+      <c r="W121" s="127"/>
       <c r="X121" s="10"/>
       <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="107"/>
-      <c r="B122" s="131"/>
-      <c r="C122" s="110"/>
-      <c r="D122" s="121" t="s">
+      <c r="A122" s="95"/>
+      <c r="B122" s="103"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="M122" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N122" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="G122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="119" t="s">
+      <c r="O122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="P122" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="R122" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="I122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J122" s="119" t="s">
+      <c r="S122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="T122" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="K122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L122" s="119" t="s">
+      <c r="U122" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="V122" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="M122" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N122" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="O122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="P122" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="R122" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="S122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="T122" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="U122" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="V122" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="W122" s="128" t="s">
-        <v>10</v>
+      <c r="W122" s="120" t="s">
+        <v>6</v>
       </c>
       <c r="X122" s="9"/>
       <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="108"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="120"/>
-      <c r="F123" s="120"/>
-      <c r="G123" s="120"/>
-      <c r="H123" s="120"/>
-      <c r="I123" s="120"/>
-      <c r="J123" s="120"/>
-      <c r="K123" s="120"/>
-      <c r="L123" s="120"/>
-      <c r="M123" s="129"/>
-      <c r="N123" s="124"/>
-      <c r="O123" s="120"/>
-      <c r="P123" s="139"/>
-      <c r="Q123" s="120"/>
-      <c r="R123" s="120"/>
-      <c r="S123" s="120"/>
-      <c r="T123" s="120"/>
-      <c r="U123" s="120"/>
-      <c r="V123" s="120"/>
-      <c r="W123" s="129"/>
+      <c r="A123" s="101"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="115"/>
+      <c r="G123" s="115"/>
+      <c r="H123" s="115"/>
+      <c r="I123" s="115"/>
+      <c r="J123" s="115"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="115"/>
+      <c r="M123" s="121"/>
+      <c r="N123" s="131"/>
+      <c r="O123" s="115"/>
+      <c r="P123" s="119"/>
+      <c r="Q123" s="115"/>
+      <c r="R123" s="115"/>
+      <c r="S123" s="115"/>
+      <c r="T123" s="115"/>
+      <c r="U123" s="115"/>
+      <c r="V123" s="115"/>
+      <c r="W123" s="121"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="147">
+      <c r="A124" s="94">
         <v>4</v>
       </c>
-      <c r="B124" s="125">
+      <c r="B124" s="97">
         <v>10000</v>
       </c>
       <c r="C124" s="80">
@@ -5673,8 +5653,8 @@
       <c r="Y124" s="5"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="107"/>
-      <c r="B125" s="126"/>
+      <c r="A125" s="95"/>
+      <c r="B125" s="98"/>
       <c r="C125" s="11">
         <v>20</v>
       </c>
@@ -5702,8 +5682,8 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="107"/>
-      <c r="B126" s="126"/>
+      <c r="A126" s="95"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="11">
         <v>300</v>
       </c>
@@ -5731,8 +5711,8 @@
       <c r="Y126" s="5"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="107"/>
-      <c r="B127" s="126"/>
+      <c r="A127" s="95"/>
+      <c r="B127" s="98"/>
       <c r="C127" s="11">
         <v>500</v>
       </c>
@@ -5760,8 +5740,8 @@
       <c r="Y127" s="5"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128" s="107"/>
-      <c r="B128" s="126"/>
+      <c r="A128" s="95"/>
+      <c r="B128" s="98"/>
       <c r="C128" s="11">
         <v>1000</v>
       </c>
@@ -5789,8 +5769,8 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A129" s="107"/>
-      <c r="B129" s="126"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="98"/>
       <c r="C129" s="81">
         <v>2000</v>
       </c>
@@ -5818,8 +5798,8 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="148"/>
-      <c r="B130" s="127"/>
+      <c r="A130" s="96"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="12">
         <v>4900</v>
       </c>
@@ -5874,119 +5854,119 @@
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A132" s="106" t="s">
+      <c r="A132" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="109"/>
+      <c r="H132" s="109"/>
+      <c r="I132" s="109"/>
+      <c r="J132" s="109"/>
+      <c r="K132" s="109"/>
+      <c r="L132" s="109"/>
+      <c r="M132" s="110"/>
+      <c r="N132" s="111"/>
+      <c r="O132" s="111"/>
+      <c r="P132" s="111"/>
+      <c r="Q132" s="111"/>
+      <c r="R132" s="111"/>
+      <c r="S132" s="111"/>
+      <c r="T132" s="111"/>
+      <c r="U132" s="111"/>
+      <c r="V132" s="111"/>
+      <c r="W132" s="111"/>
+      <c r="X132" s="111"/>
+      <c r="Y132" s="111"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A133" s="95"/>
+      <c r="B133" s="103"/>
+      <c r="C133" s="106"/>
+      <c r="D133" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="114"/>
-      <c r="N132" s="118"/>
-      <c r="O132" s="118"/>
-      <c r="P132" s="118"/>
-      <c r="Q132" s="118"/>
-      <c r="R132" s="118"/>
-      <c r="S132" s="118"/>
-      <c r="T132" s="118"/>
-      <c r="U132" s="118"/>
-      <c r="V132" s="118"/>
-      <c r="W132" s="118"/>
-      <c r="X132" s="118"/>
-      <c r="Y132" s="118"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A133" s="107"/>
-      <c r="B133" s="131"/>
-      <c r="C133" s="110"/>
-      <c r="D133" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="G133" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I133" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="K133" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="M133" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="N133" s="140"/>
-      <c r="O133" s="141"/>
-      <c r="P133" s="133"/>
-      <c r="Q133" s="141"/>
-      <c r="R133" s="133"/>
-      <c r="S133" s="141"/>
-      <c r="T133" s="133"/>
-      <c r="U133" s="141"/>
-      <c r="V133" s="142"/>
-      <c r="W133" s="141"/>
-      <c r="X133" s="141"/>
-      <c r="Y133" s="141"/>
+      <c r="F133" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G133" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J133" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K133" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L133" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M133" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N133" s="122"/>
+      <c r="O133" s="93"/>
+      <c r="P133" s="123"/>
+      <c r="Q133" s="93"/>
+      <c r="R133" s="123"/>
+      <c r="S133" s="93"/>
+      <c r="T133" s="123"/>
+      <c r="U133" s="93"/>
+      <c r="V133" s="124"/>
+      <c r="W133" s="93"/>
+      <c r="X133" s="93"/>
+      <c r="Y133" s="93"/>
     </row>
     <row r="134" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="108"/>
-      <c r="B134" s="132"/>
-      <c r="C134" s="111"/>
-      <c r="D134" s="137"/>
-      <c r="E134" s="120"/>
-      <c r="F134" s="135"/>
-      <c r="G134" s="120"/>
-      <c r="H134" s="139"/>
-      <c r="I134" s="120"/>
-      <c r="J134" s="139"/>
-      <c r="K134" s="120"/>
-      <c r="L134" s="120"/>
-      <c r="M134" s="129"/>
-      <c r="N134" s="140"/>
-      <c r="O134" s="141"/>
-      <c r="P134" s="133"/>
-      <c r="Q134" s="141"/>
-      <c r="R134" s="133"/>
-      <c r="S134" s="141"/>
-      <c r="T134" s="133"/>
-      <c r="U134" s="141"/>
-      <c r="V134" s="142"/>
-      <c r="W134" s="141"/>
-      <c r="X134" s="141"/>
-      <c r="Y134" s="141"/>
+      <c r="A134" s="101"/>
+      <c r="B134" s="104"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="113"/>
+      <c r="E134" s="115"/>
+      <c r="F134" s="117"/>
+      <c r="G134" s="115"/>
+      <c r="H134" s="119"/>
+      <c r="I134" s="115"/>
+      <c r="J134" s="119"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="115"/>
+      <c r="M134" s="121"/>
+      <c r="N134" s="122"/>
+      <c r="O134" s="93"/>
+      <c r="P134" s="123"/>
+      <c r="Q134" s="93"/>
+      <c r="R134" s="123"/>
+      <c r="S134" s="93"/>
+      <c r="T134" s="123"/>
+      <c r="U134" s="93"/>
+      <c r="V134" s="124"/>
+      <c r="W134" s="93"/>
+      <c r="X134" s="93"/>
+      <c r="Y134" s="93"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A135" s="147">
+      <c r="A135" s="94">
         <v>4</v>
       </c>
-      <c r="B135" s="125">
+      <c r="B135" s="97">
         <v>10000</v>
       </c>
       <c r="C135" s="80">
@@ -6016,8 +5996,8 @@
       <c r="Y135" s="76"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A136" s="107"/>
-      <c r="B136" s="126"/>
+      <c r="A136" s="95"/>
+      <c r="B136" s="98"/>
       <c r="C136" s="11">
         <v>20</v>
       </c>
@@ -6045,8 +6025,8 @@
       <c r="Y136" s="76"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A137" s="107"/>
-      <c r="B137" s="126"/>
+      <c r="A137" s="95"/>
+      <c r="B137" s="98"/>
       <c r="C137" s="11">
         <v>300</v>
       </c>
@@ -6074,8 +6054,8 @@
       <c r="Y137" s="76"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A138" s="107"/>
-      <c r="B138" s="126"/>
+      <c r="A138" s="95"/>
+      <c r="B138" s="98"/>
       <c r="C138" s="11">
         <v>500</v>
       </c>
@@ -6103,8 +6083,8 @@
       <c r="Y138" s="76"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A139" s="107"/>
-      <c r="B139" s="126"/>
+      <c r="A139" s="95"/>
+      <c r="B139" s="98"/>
       <c r="C139" s="11">
         <v>1000</v>
       </c>
@@ -6132,8 +6112,8 @@
       <c r="Y139" s="76"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A140" s="107"/>
-      <c r="B140" s="126"/>
+      <c r="A140" s="95"/>
+      <c r="B140" s="98"/>
       <c r="C140" s="81">
         <v>2000</v>
       </c>
@@ -6161,8 +6141,8 @@
       <c r="Y140" s="76"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="148"/>
-      <c r="B141" s="127"/>
+      <c r="A141" s="96"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="12">
         <v>4900</v>
       </c>
@@ -6218,7 +6198,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
@@ -6226,38 +6206,38 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="94"/>
-      <c r="C147" s="94"/>
-      <c r="D147" s="94"/>
-      <c r="E147" s="94"/>
-      <c r="F147" s="94"/>
-      <c r="G147" s="94"/>
-      <c r="H147" s="94"/>
-      <c r="I147" s="94"/>
-      <c r="J147" s="94"/>
-      <c r="K147" s="94"/>
-      <c r="L147" s="94"/>
-      <c r="M147" s="94"/>
-      <c r="N147" s="94"/>
-      <c r="O147" s="94"/>
-      <c r="P147" s="94"/>
-      <c r="Q147" s="94"/>
-      <c r="R147" s="94"/>
-      <c r="S147" s="94"/>
-      <c r="T147" s="94"/>
-      <c r="U147" s="95"/>
+      <c r="A147" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="141"/>
+      <c r="C147" s="141"/>
+      <c r="D147" s="141"/>
+      <c r="E147" s="141"/>
+      <c r="F147" s="141"/>
+      <c r="G147" s="141"/>
+      <c r="H147" s="141"/>
+      <c r="I147" s="141"/>
+      <c r="J147" s="141"/>
+      <c r="K147" s="141"/>
+      <c r="L147" s="141"/>
+      <c r="M147" s="141"/>
+      <c r="N147" s="141"/>
+      <c r="O147" s="141"/>
+      <c r="P147" s="141"/>
+      <c r="Q147" s="141"/>
+      <c r="R147" s="141"/>
+      <c r="S147" s="141"/>
+      <c r="T147" s="141"/>
+      <c r="U147" s="142"/>
       <c r="V147" s="73"/>
       <c r="W147" s="73"/>
       <c r="X147" s="73"/>
@@ -6265,67 +6245,67 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="K148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L148" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="M148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N148" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="O148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="P148" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q148" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="R148" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="G148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="I148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="K148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="L148" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="M148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="N148" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="O148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="P148" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q148" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="R148" s="71" t="s">
-        <v>41</v>
-      </c>
       <c r="S148" s="71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T148" s="71" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U148" s="72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
@@ -6334,67 +6314,67 @@
     </row>
     <row r="149" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T149" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U149" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V149" s="75"/>
       <c r="W149" s="75"/>
@@ -6460,31 +6440,31 @@
       <c r="Y151" s="78"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I154" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="J154" s="146"/>
-      <c r="K154" s="146"/>
-      <c r="L154" s="146"/>
+      <c r="I154" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" s="139"/>
+      <c r="K154" s="139"/>
+      <c r="L154" s="139"/>
       <c r="M154" s="34"/>
       <c r="N154" s="34"/>
       <c r="O154" s="34"/>
       <c r="P154" s="34"/>
       <c r="Q154" s="34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R154" s="34"/>
       <c r="S154" s="34"/>
       <c r="T154" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J156" s="146" t="s">
-        <v>34</v>
-      </c>
-      <c r="K156" s="146"/>
-      <c r="L156" s="146"/>
+      <c r="J156" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="K156" s="139"/>
+      <c r="L156" s="139"/>
       <c r="M156" s="34"/>
       <c r="N156" s="34"/>
       <c r="O156" s="34"/>
@@ -6493,6 +6473,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="A147:U147"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A37:U37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A26:U26"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="N55:W55"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="N66:Y66"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="U56:U57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="Y67:Y68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="W78:W79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="N77:W77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="U78:U79"/>
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="N88:Y88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="N99:W99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="U100:U101"/>
+    <mergeCell ref="V100:V101"/>
+    <mergeCell ref="W100:W101"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="S111:S112"/>
+    <mergeCell ref="T111:T112"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="T100:T101"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:M110"/>
+    <mergeCell ref="N110:Y110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="W122:W123"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="U111:U112"/>
+    <mergeCell ref="V111:V112"/>
+    <mergeCell ref="W111:W112"/>
+    <mergeCell ref="X111:X112"/>
+    <mergeCell ref="Y111:Y112"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="N121:W121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="R133:R134"/>
+    <mergeCell ref="S133:S134"/>
+    <mergeCell ref="T133:T134"/>
+    <mergeCell ref="U133:U134"/>
+    <mergeCell ref="V133:V134"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="U122:U123"/>
+    <mergeCell ref="V122:V123"/>
     <mergeCell ref="W133:W134"/>
     <mergeCell ref="X133:X134"/>
     <mergeCell ref="Y133:Y134"/>
@@ -6517,236 +6727,6 @@
     <mergeCell ref="O133:O134"/>
     <mergeCell ref="P133:P134"/>
     <mergeCell ref="Q133:Q134"/>
-    <mergeCell ref="R133:R134"/>
-    <mergeCell ref="S133:S134"/>
-    <mergeCell ref="T133:T134"/>
-    <mergeCell ref="U133:U134"/>
-    <mergeCell ref="V133:V134"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="U122:U123"/>
-    <mergeCell ref="V122:V123"/>
-    <mergeCell ref="W122:W123"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="U111:U112"/>
-    <mergeCell ref="V111:V112"/>
-    <mergeCell ref="W111:W112"/>
-    <mergeCell ref="X111:X112"/>
-    <mergeCell ref="Y111:Y112"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="N121:W121"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="N110:Y110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="S111:S112"/>
-    <mergeCell ref="T111:T112"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="T100:T101"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="N99:W99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="U100:U101"/>
-    <mergeCell ref="V100:V101"/>
-    <mergeCell ref="W100:W101"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="N88:Y88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="T78:T79"/>
-    <mergeCell ref="U78:U79"/>
-    <mergeCell ref="V78:V79"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="W78:W79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="R78:R79"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="N77:W77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="Y67:Y68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="N55:W55"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="N66:Y66"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="U56:U57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="A147:U147"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A37:U37"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="A26:U26"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G19:J19"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/E20-10.xlsx
+++ b/Shablon/E20-10.xlsx
@@ -19,7 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
   <si>
     <t>Заказчик :</t>
   </si>
@@ -513,13 +525,13 @@
     </r>
   </si>
   <si>
-    <t>TITLE</t>
+    <t>Уникальный номер об аккредитации в реестре аккредитованных лиц № РОСС СОБ 3.00231.2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1427,147 +1439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,8 +1459,149 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,7 +1911,7 @@
   <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,141 +1921,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
+      <c r="A2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
+      <c r="A3" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
+      <c r="A4" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
+      <c r="A5" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -2056,24 +2076,24 @@
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="A7" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
       <c r="M7" s="31"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="24"/>
@@ -2108,7 +2128,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="33"/>
@@ -2130,7 +2150,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2142,7 +2162,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2154,7 +2174,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2181,27 +2201,27 @@
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="148" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
+      <c r="A15" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
@@ -2213,25 +2233,25 @@
       <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
+      <c r="A16" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -2243,25 +2263,25 @@
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="132" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
+      <c r="A17" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -2273,25 +2293,25 @@
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="148" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
+      <c r="A18" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -2303,25 +2323,25 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
+      <c r="A19" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -2333,25 +2353,25 @@
       <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
+      <c r="A20" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -2364,7 +2384,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2376,7 +2396,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2388,7 +2408,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -2400,165 +2420,165 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="145"/>
+      <c r="A26" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="98"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U27" s="90" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T28" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2754,158 +2774,158 @@
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="144"/>
-      <c r="U37" s="145"/>
+      <c r="A37" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="98"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S38" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U38" s="90" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T39" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3032,158 +3052,158 @@
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="144"/>
-      <c r="T45" s="144"/>
-      <c r="U45" s="145"/>
+      <c r="A45" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="98"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U46" s="90" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T47" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3311,7 +3331,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3366,141 +3386,141 @@
       <c r="Y54" s="5"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="110"/>
-      <c r="N55" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="127"/>
+      <c r="A55" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="116"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="116"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
+      <c r="V55" s="116"/>
+      <c r="W55" s="117"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="5"/>
     </row>
     <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="K56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="114" t="s">
+      <c r="A56" s="107"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M56" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" s="130" t="s">
+      <c r="G56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="O56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="P56" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="R56" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="S56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="T56" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U56" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="V56" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="W56" s="120" t="s">
-        <v>6</v>
+      <c r="Q56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="S56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U56" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="V56" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" s="128" t="s">
+        <v>10</v>
       </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="101"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="115"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="115"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="115"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="115"/>
-      <c r="W57" s="121"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
+      <c r="V57" s="120"/>
+      <c r="W57" s="129"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="94">
+      <c r="A58" s="147">
         <v>1</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="125">
         <v>10000</v>
       </c>
       <c r="C58" s="80">
@@ -3530,8 +3550,8 @@
       <c r="Y58" s="5"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="11">
         <v>20</v>
       </c>
@@ -3559,8 +3579,8 @@
       <c r="Y59" s="5"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="107"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="11">
         <v>300</v>
       </c>
@@ -3588,8 +3608,8 @@
       <c r="Y60" s="5"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="11">
         <v>500</v>
       </c>
@@ -3617,8 +3637,8 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="11">
         <v>1000</v>
       </c>
@@ -3646,8 +3666,8 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="98"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="81">
         <v>2000</v>
       </c>
@@ -3675,8 +3695,8 @@
       <c r="Y63" s="5"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="96"/>
-      <c r="B64" s="99"/>
+      <c r="A64" s="148"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="12">
         <v>4900</v>
       </c>
@@ -3731,119 +3751,119 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="110"/>
-      <c r="N66" s="111"/>
-      <c r="O66" s="111"/>
-      <c r="P66" s="111"/>
-      <c r="Q66" s="111"/>
-      <c r="R66" s="111"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="111"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="111"/>
-      <c r="Y66" s="111"/>
+      <c r="A66" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="118"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="118"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="118"/>
+      <c r="Y66" s="118"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="M67" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N67" s="122"/>
-      <c r="O67" s="93"/>
-      <c r="P67" s="123"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="93"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="93"/>
-      <c r="V67" s="124"/>
-      <c r="W67" s="93"/>
-      <c r="X67" s="93"/>
-      <c r="Y67" s="93"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="140"/>
+      <c r="O67" s="141"/>
+      <c r="P67" s="133"/>
+      <c r="Q67" s="141"/>
+      <c r="R67" s="133"/>
+      <c r="S67" s="141"/>
+      <c r="T67" s="133"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="142"/>
+      <c r="W67" s="141"/>
+      <c r="X67" s="141"/>
+      <c r="Y67" s="141"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="101"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="122"/>
-      <c r="O68" s="93"/>
-      <c r="P68" s="123"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="93"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="93"/>
-      <c r="V68" s="124"/>
-      <c r="W68" s="93"/>
-      <c r="X68" s="93"/>
-      <c r="Y68" s="93"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="139"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="140"/>
+      <c r="O68" s="141"/>
+      <c r="P68" s="133"/>
+      <c r="Q68" s="141"/>
+      <c r="R68" s="133"/>
+      <c r="S68" s="141"/>
+      <c r="T68" s="133"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="142"/>
+      <c r="W68" s="141"/>
+      <c r="X68" s="141"/>
+      <c r="Y68" s="141"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="94">
+      <c r="A69" s="147">
         <v>1</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B69" s="125">
         <v>10000</v>
       </c>
       <c r="C69" s="80">
@@ -3873,8 +3893,8 @@
       <c r="Y69" s="76"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="11">
         <v>20</v>
       </c>
@@ -3902,8 +3922,8 @@
       <c r="Y70" s="76"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="11">
         <v>300</v>
       </c>
@@ -3931,8 +3951,8 @@
       <c r="Y71" s="76"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="11">
         <v>500</v>
       </c>
@@ -3960,8 +3980,8 @@
       <c r="Y72" s="76"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="11">
         <v>1000</v>
       </c>
@@ -3989,8 +4009,8 @@
       <c r="Y73" s="76"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="81">
         <v>2000</v>
       </c>
@@ -4018,8 +4038,8 @@
       <c r="Y74" s="76"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="96"/>
-      <c r="B75" s="99"/>
+      <c r="A75" s="148"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="12">
         <v>4900</v>
       </c>
@@ -4074,141 +4094,141 @@
       <c r="Y76" s="5"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="110"/>
-      <c r="N77" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O77" s="126"/>
-      <c r="P77" s="126"/>
-      <c r="Q77" s="126"/>
-      <c r="R77" s="126"/>
-      <c r="S77" s="126"/>
-      <c r="T77" s="126"/>
-      <c r="U77" s="126"/>
-      <c r="V77" s="126"/>
-      <c r="W77" s="127"/>
+      <c r="A77" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="O77" s="116"/>
+      <c r="P77" s="116"/>
+      <c r="Q77" s="116"/>
+      <c r="R77" s="116"/>
+      <c r="S77" s="116"/>
+      <c r="T77" s="116"/>
+      <c r="U77" s="116"/>
+      <c r="V77" s="116"/>
+      <c r="W77" s="117"/>
       <c r="X77" s="10"/>
       <c r="Y77" s="5"/>
     </row>
     <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="G78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="I78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="K78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L78" s="114" t="s">
+      <c r="A78" s="107"/>
+      <c r="B78" s="131"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M78" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N78" s="130" t="s">
+      <c r="G78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="M78" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="O78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="P78" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="R78" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="S78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="T78" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U78" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="V78" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="W78" s="120" t="s">
-        <v>6</v>
+      <c r="Q78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="S78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="T78" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U78" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="V78" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="W78" s="128" t="s">
+        <v>10</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="5"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="101"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="121"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="119"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="115"/>
-      <c r="T79" s="115"/>
-      <c r="U79" s="115"/>
-      <c r="V79" s="115"/>
-      <c r="W79" s="121"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="132"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="129"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="139"/>
+      <c r="Q79" s="120"/>
+      <c r="R79" s="120"/>
+      <c r="S79" s="120"/>
+      <c r="T79" s="120"/>
+      <c r="U79" s="120"/>
+      <c r="V79" s="120"/>
+      <c r="W79" s="129"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="94">
+      <c r="A80" s="147">
         <v>2</v>
       </c>
-      <c r="B80" s="97">
+      <c r="B80" s="125">
         <v>10000</v>
       </c>
       <c r="C80" s="80">
@@ -4238,8 +4258,8 @@
       <c r="Y80" s="5"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="95"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="126"/>
       <c r="C81" s="11">
         <v>20</v>
       </c>
@@ -4267,8 +4287,8 @@
       <c r="Y81" s="5"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="107"/>
+      <c r="B82" s="126"/>
       <c r="C82" s="11">
         <v>300</v>
       </c>
@@ -4296,8 +4316,8 @@
       <c r="Y82" s="5"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="95"/>
-      <c r="B83" s="98"/>
+      <c r="A83" s="107"/>
+      <c r="B83" s="126"/>
       <c r="C83" s="11">
         <v>500</v>
       </c>
@@ -4325,8 +4345,8 @@
       <c r="Y83" s="5"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="126"/>
       <c r="C84" s="11">
         <v>1000</v>
       </c>
@@ -4354,8 +4374,8 @@
       <c r="Y84" s="5"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="107"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="81">
         <v>2000</v>
       </c>
@@ -4383,8 +4403,8 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="96"/>
-      <c r="B86" s="99"/>
+      <c r="A86" s="148"/>
+      <c r="B86" s="127"/>
       <c r="C86" s="12">
         <v>4900</v>
       </c>
@@ -4439,119 +4459,119 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="100" t="s">
+      <c r="A88" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="113"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="113"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="113"/>
+      <c r="K88" s="113"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="118"/>
+      <c r="O88" s="118"/>
+      <c r="P88" s="118"/>
+      <c r="Q88" s="118"/>
+      <c r="R88" s="118"/>
+      <c r="S88" s="118"/>
+      <c r="T88" s="118"/>
+      <c r="U88" s="118"/>
+      <c r="V88" s="118"/>
+      <c r="W88" s="118"/>
+      <c r="X88" s="118"/>
+      <c r="Y88" s="118"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89" s="107"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M89" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N89" s="140"/>
+      <c r="O89" s="141"/>
+      <c r="P89" s="133"/>
+      <c r="Q89" s="141"/>
+      <c r="R89" s="133"/>
+      <c r="S89" s="141"/>
+      <c r="T89" s="133"/>
+      <c r="U89" s="141"/>
+      <c r="V89" s="142"/>
+      <c r="W89" s="141"/>
+      <c r="X89" s="141"/>
+      <c r="Y89" s="141"/>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="108"/>
+      <c r="B90" s="132"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="120"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="120"/>
+      <c r="H90" s="139"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="139"/>
+      <c r="K90" s="120"/>
+      <c r="L90" s="120"/>
+      <c r="M90" s="129"/>
+      <c r="N90" s="140"/>
+      <c r="O90" s="141"/>
+      <c r="P90" s="133"/>
+      <c r="Q90" s="141"/>
+      <c r="R90" s="133"/>
+      <c r="S90" s="141"/>
+      <c r="T90" s="133"/>
+      <c r="U90" s="141"/>
+      <c r="V90" s="142"/>
+      <c r="W90" s="141"/>
+      <c r="X90" s="141"/>
+      <c r="Y90" s="141"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A91" s="147">
         <v>2</v>
       </c>
-      <c r="B88" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="110"/>
-      <c r="N88" s="111"/>
-      <c r="O88" s="111"/>
-      <c r="P88" s="111"/>
-      <c r="Q88" s="111"/>
-      <c r="R88" s="111"/>
-      <c r="S88" s="111"/>
-      <c r="T88" s="111"/>
-      <c r="U88" s="111"/>
-      <c r="V88" s="111"/>
-      <c r="W88" s="111"/>
-      <c r="X88" s="111"/>
-      <c r="Y88" s="111"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
-      <c r="B89" s="103"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G89" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I89" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L89" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="M89" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N89" s="122"/>
-      <c r="O89" s="93"/>
-      <c r="P89" s="123"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="123"/>
-      <c r="S89" s="93"/>
-      <c r="T89" s="123"/>
-      <c r="U89" s="93"/>
-      <c r="V89" s="124"/>
-      <c r="W89" s="93"/>
-      <c r="X89" s="93"/>
-      <c r="Y89" s="93"/>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="101"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="115"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="115"/>
-      <c r="J90" s="119"/>
-      <c r="K90" s="115"/>
-      <c r="L90" s="115"/>
-      <c r="M90" s="121"/>
-      <c r="N90" s="122"/>
-      <c r="O90" s="93"/>
-      <c r="P90" s="123"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="123"/>
-      <c r="S90" s="93"/>
-      <c r="T90" s="123"/>
-      <c r="U90" s="93"/>
-      <c r="V90" s="124"/>
-      <c r="W90" s="93"/>
-      <c r="X90" s="93"/>
-      <c r="Y90" s="93"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="94">
-        <v>2</v>
-      </c>
-      <c r="B91" s="97">
+      <c r="B91" s="125">
         <v>10000</v>
       </c>
       <c r="C91" s="80">
@@ -4581,8 +4601,8 @@
       <c r="Y91" s="76"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="95"/>
-      <c r="B92" s="98"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="11">
         <v>20</v>
       </c>
@@ -4610,8 +4630,8 @@
       <c r="Y92" s="76"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="95"/>
-      <c r="B93" s="98"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="126"/>
       <c r="C93" s="11">
         <v>300</v>
       </c>
@@ -4639,8 +4659,8 @@
       <c r="Y93" s="76"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="95"/>
-      <c r="B94" s="98"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="126"/>
       <c r="C94" s="11">
         <v>500</v>
       </c>
@@ -4668,8 +4688,8 @@
       <c r="Y94" s="76"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="95"/>
-      <c r="B95" s="98"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="126"/>
       <c r="C95" s="11">
         <v>1000</v>
       </c>
@@ -4697,8 +4717,8 @@
       <c r="Y95" s="76"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="95"/>
-      <c r="B96" s="98"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="126"/>
       <c r="C96" s="81">
         <v>2000</v>
       </c>
@@ -4726,8 +4746,8 @@
       <c r="Y96" s="76"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="96"/>
-      <c r="B97" s="99"/>
+      <c r="A97" s="148"/>
+      <c r="B97" s="127"/>
       <c r="C97" s="12">
         <v>4900</v>
       </c>
@@ -4781,141 +4801,141 @@
       <c r="X98" s="5"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="109"/>
-      <c r="F99" s="109"/>
-      <c r="G99" s="109"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="109"/>
-      <c r="J99" s="109"/>
-      <c r="K99" s="109"/>
-      <c r="L99" s="109"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O99" s="126"/>
-      <c r="P99" s="126"/>
-      <c r="Q99" s="126"/>
-      <c r="R99" s="126"/>
-      <c r="S99" s="126"/>
-      <c r="T99" s="126"/>
-      <c r="U99" s="126"/>
-      <c r="V99" s="126"/>
-      <c r="W99" s="127"/>
+      <c r="A99" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="113"/>
+      <c r="L99" s="113"/>
+      <c r="M99" s="114"/>
+      <c r="N99" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="O99" s="116"/>
+      <c r="P99" s="116"/>
+      <c r="Q99" s="116"/>
+      <c r="R99" s="116"/>
+      <c r="S99" s="116"/>
+      <c r="T99" s="116"/>
+      <c r="U99" s="116"/>
+      <c r="V99" s="116"/>
+      <c r="W99" s="117"/>
       <c r="X99" s="10"/>
       <c r="Y99" s="5"/>
     </row>
     <row r="100" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
-      <c r="B100" s="103"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="G100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="I100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J100" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="K100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L100" s="114" t="s">
+      <c r="A100" s="107"/>
+      <c r="B100" s="131"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M100" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N100" s="130" t="s">
+      <c r="G100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="K100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="M100" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="O100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="P100" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="O100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="P100" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="R100" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="S100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="T100" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U100" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="V100" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="W100" s="120" t="s">
-        <v>6</v>
+      <c r="Q100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="R100" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="S100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="T100" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U100" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="V100" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="W100" s="128" t="s">
+        <v>10</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="101"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="129"/>
-      <c r="E101" s="115"/>
-      <c r="F101" s="115"/>
-      <c r="G101" s="115"/>
-      <c r="H101" s="115"/>
-      <c r="I101" s="115"/>
-      <c r="J101" s="115"/>
-      <c r="K101" s="115"/>
-      <c r="L101" s="115"/>
-      <c r="M101" s="121"/>
-      <c r="N101" s="131"/>
-      <c r="O101" s="115"/>
-      <c r="P101" s="119"/>
-      <c r="Q101" s="115"/>
-      <c r="R101" s="115"/>
-      <c r="S101" s="115"/>
-      <c r="T101" s="115"/>
-      <c r="U101" s="115"/>
-      <c r="V101" s="115"/>
-      <c r="W101" s="121"/>
+      <c r="A101" s="108"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="120"/>
+      <c r="G101" s="120"/>
+      <c r="H101" s="120"/>
+      <c r="I101" s="120"/>
+      <c r="J101" s="120"/>
+      <c r="K101" s="120"/>
+      <c r="L101" s="120"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="120"/>
+      <c r="P101" s="139"/>
+      <c r="Q101" s="120"/>
+      <c r="R101" s="120"/>
+      <c r="S101" s="120"/>
+      <c r="T101" s="120"/>
+      <c r="U101" s="120"/>
+      <c r="V101" s="120"/>
+      <c r="W101" s="129"/>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="94">
+      <c r="A102" s="147">
         <v>3</v>
       </c>
-      <c r="B102" s="97">
+      <c r="B102" s="125">
         <v>10000</v>
       </c>
       <c r="C102" s="80">
@@ -4945,8 +4965,8 @@
       <c r="Y102" s="5"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
-      <c r="B103" s="98"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="126"/>
       <c r="C103" s="11">
         <v>20</v>
       </c>
@@ -4974,8 +4994,8 @@
       <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
-      <c r="B104" s="98"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="126"/>
       <c r="C104" s="11">
         <v>300</v>
       </c>
@@ -5003,8 +5023,8 @@
       <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="95"/>
-      <c r="B105" s="98"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="126"/>
       <c r="C105" s="11">
         <v>500</v>
       </c>
@@ -5032,8 +5052,8 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="95"/>
-      <c r="B106" s="98"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="126"/>
       <c r="C106" s="11">
         <v>1000</v>
       </c>
@@ -5061,8 +5081,8 @@
       <c r="Y106" s="5"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="98"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="126"/>
       <c r="C107" s="81">
         <v>2000</v>
       </c>
@@ -5090,8 +5110,8 @@
       <c r="Y107" s="5"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="96"/>
-      <c r="B108" s="99"/>
+      <c r="A108" s="148"/>
+      <c r="B108" s="127"/>
       <c r="C108" s="12">
         <v>4900</v>
       </c>
@@ -5146,119 +5166,119 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" s="109"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="109"/>
-      <c r="H110" s="109"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="109"/>
-      <c r="K110" s="109"/>
-      <c r="L110" s="109"/>
-      <c r="M110" s="110"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="111"/>
-      <c r="S110" s="111"/>
-      <c r="T110" s="111"/>
-      <c r="U110" s="111"/>
-      <c r="V110" s="111"/>
-      <c r="W110" s="111"/>
-      <c r="X110" s="111"/>
-      <c r="Y110" s="111"/>
+      <c r="A110" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="113"/>
+      <c r="F110" s="113"/>
+      <c r="G110" s="113"/>
+      <c r="H110" s="113"/>
+      <c r="I110" s="113"/>
+      <c r="J110" s="113"/>
+      <c r="K110" s="113"/>
+      <c r="L110" s="113"/>
+      <c r="M110" s="114"/>
+      <c r="N110" s="118"/>
+      <c r="O110" s="118"/>
+      <c r="P110" s="118"/>
+      <c r="Q110" s="118"/>
+      <c r="R110" s="118"/>
+      <c r="S110" s="118"/>
+      <c r="T110" s="118"/>
+      <c r="U110" s="118"/>
+      <c r="V110" s="118"/>
+      <c r="W110" s="118"/>
+      <c r="X110" s="118"/>
+      <c r="Y110" s="118"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="95"/>
-      <c r="B111" s="103"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G111" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I111" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J111" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="K111" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L111" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="M111" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N111" s="122"/>
-      <c r="O111" s="93"/>
-      <c r="P111" s="123"/>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="123"/>
-      <c r="S111" s="93"/>
-      <c r="T111" s="123"/>
-      <c r="U111" s="93"/>
-      <c r="V111" s="124"/>
-      <c r="W111" s="93"/>
-      <c r="X111" s="93"/>
-      <c r="Y111" s="93"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="131"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I111" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="K111" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M111" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N111" s="140"/>
+      <c r="O111" s="141"/>
+      <c r="P111" s="133"/>
+      <c r="Q111" s="141"/>
+      <c r="R111" s="133"/>
+      <c r="S111" s="141"/>
+      <c r="T111" s="133"/>
+      <c r="U111" s="141"/>
+      <c r="V111" s="142"/>
+      <c r="W111" s="141"/>
+      <c r="X111" s="141"/>
+      <c r="Y111" s="141"/>
     </row>
     <row r="112" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="101"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="115"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="115"/>
-      <c r="H112" s="119"/>
-      <c r="I112" s="115"/>
-      <c r="J112" s="119"/>
-      <c r="K112" s="115"/>
-      <c r="L112" s="115"/>
-      <c r="M112" s="121"/>
-      <c r="N112" s="122"/>
-      <c r="O112" s="93"/>
-      <c r="P112" s="123"/>
-      <c r="Q112" s="93"/>
-      <c r="R112" s="123"/>
-      <c r="S112" s="93"/>
-      <c r="T112" s="123"/>
-      <c r="U112" s="93"/>
-      <c r="V112" s="124"/>
-      <c r="W112" s="93"/>
-      <c r="X112" s="93"/>
-      <c r="Y112" s="93"/>
+      <c r="A112" s="108"/>
+      <c r="B112" s="132"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="137"/>
+      <c r="E112" s="120"/>
+      <c r="F112" s="135"/>
+      <c r="G112" s="120"/>
+      <c r="H112" s="139"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="139"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="129"/>
+      <c r="N112" s="140"/>
+      <c r="O112" s="141"/>
+      <c r="P112" s="133"/>
+      <c r="Q112" s="141"/>
+      <c r="R112" s="133"/>
+      <c r="S112" s="141"/>
+      <c r="T112" s="133"/>
+      <c r="U112" s="141"/>
+      <c r="V112" s="142"/>
+      <c r="W112" s="141"/>
+      <c r="X112" s="141"/>
+      <c r="Y112" s="141"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="94">
+      <c r="A113" s="147">
         <v>3</v>
       </c>
-      <c r="B113" s="97">
+      <c r="B113" s="125">
         <v>10000</v>
       </c>
       <c r="C113" s="80">
@@ -5288,8 +5308,8 @@
       <c r="Y113" s="76"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="95"/>
-      <c r="B114" s="98"/>
+      <c r="A114" s="107"/>
+      <c r="B114" s="126"/>
       <c r="C114" s="11">
         <v>20</v>
       </c>
@@ -5317,8 +5337,8 @@
       <c r="Y114" s="76"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="95"/>
-      <c r="B115" s="98"/>
+      <c r="A115" s="107"/>
+      <c r="B115" s="126"/>
       <c r="C115" s="11">
         <v>300</v>
       </c>
@@ -5346,8 +5366,8 @@
       <c r="Y115" s="76"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="95"/>
-      <c r="B116" s="98"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="126"/>
       <c r="C116" s="11">
         <v>500</v>
       </c>
@@ -5375,8 +5395,8 @@
       <c r="Y116" s="76"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="98"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="126"/>
       <c r="C117" s="11">
         <v>1000</v>
       </c>
@@ -5404,8 +5424,8 @@
       <c r="Y117" s="76"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
-      <c r="B118" s="98"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="126"/>
       <c r="C118" s="81">
         <v>2000</v>
       </c>
@@ -5433,8 +5453,8 @@
       <c r="Y118" s="76"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="96"/>
-      <c r="B119" s="99"/>
+      <c r="A119" s="148"/>
+      <c r="B119" s="127"/>
       <c r="C119" s="12">
         <v>4900</v>
       </c>
@@ -5489,141 +5509,141 @@
       <c r="Y120" s="76"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="E121" s="109"/>
-      <c r="F121" s="109"/>
-      <c r="G121" s="109"/>
-      <c r="H121" s="109"/>
-      <c r="I121" s="109"/>
-      <c r="J121" s="109"/>
-      <c r="K121" s="109"/>
-      <c r="L121" s="109"/>
-      <c r="M121" s="110"/>
-      <c r="N121" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O121" s="126"/>
-      <c r="P121" s="126"/>
-      <c r="Q121" s="126"/>
-      <c r="R121" s="126"/>
-      <c r="S121" s="126"/>
-      <c r="T121" s="126"/>
-      <c r="U121" s="126"/>
-      <c r="V121" s="126"/>
-      <c r="W121" s="127"/>
+      <c r="A121" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="113"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="113"/>
+      <c r="H121" s="113"/>
+      <c r="I121" s="113"/>
+      <c r="J121" s="113"/>
+      <c r="K121" s="113"/>
+      <c r="L121" s="113"/>
+      <c r="M121" s="114"/>
+      <c r="N121" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="O121" s="116"/>
+      <c r="P121" s="116"/>
+      <c r="Q121" s="116"/>
+      <c r="R121" s="116"/>
+      <c r="S121" s="116"/>
+      <c r="T121" s="116"/>
+      <c r="U121" s="116"/>
+      <c r="V121" s="116"/>
+      <c r="W121" s="117"/>
       <c r="X121" s="10"/>
       <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="95"/>
-      <c r="B122" s="103"/>
-      <c r="C122" s="106"/>
-      <c r="D122" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="G122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="I122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J122" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="K122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L122" s="114" t="s">
+      <c r="A122" s="107"/>
+      <c r="B122" s="131"/>
+      <c r="C122" s="110"/>
+      <c r="D122" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M122" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N122" s="130" t="s">
+      <c r="G122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="K122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L122" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="M122" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N122" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="O122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="P122" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="O122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="P122" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="R122" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="S122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="T122" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U122" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="V122" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="W122" s="120" t="s">
-        <v>6</v>
+      <c r="Q122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="R122" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="S122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="T122" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U122" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="V122" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="W122" s="128" t="s">
+        <v>10</v>
       </c>
       <c r="X122" s="9"/>
       <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="101"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="107"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="115"/>
-      <c r="G123" s="115"/>
-      <c r="H123" s="115"/>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="115"/>
-      <c r="L123" s="115"/>
-      <c r="M123" s="121"/>
-      <c r="N123" s="131"/>
-      <c r="O123" s="115"/>
-      <c r="P123" s="119"/>
-      <c r="Q123" s="115"/>
-      <c r="R123" s="115"/>
-      <c r="S123" s="115"/>
-      <c r="T123" s="115"/>
-      <c r="U123" s="115"/>
-      <c r="V123" s="115"/>
-      <c r="W123" s="121"/>
+      <c r="A123" s="108"/>
+      <c r="B123" s="132"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="122"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="120"/>
+      <c r="G123" s="120"/>
+      <c r="H123" s="120"/>
+      <c r="I123" s="120"/>
+      <c r="J123" s="120"/>
+      <c r="K123" s="120"/>
+      <c r="L123" s="120"/>
+      <c r="M123" s="129"/>
+      <c r="N123" s="124"/>
+      <c r="O123" s="120"/>
+      <c r="P123" s="139"/>
+      <c r="Q123" s="120"/>
+      <c r="R123" s="120"/>
+      <c r="S123" s="120"/>
+      <c r="T123" s="120"/>
+      <c r="U123" s="120"/>
+      <c r="V123" s="120"/>
+      <c r="W123" s="129"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="94">
+      <c r="A124" s="147">
         <v>4</v>
       </c>
-      <c r="B124" s="97">
+      <c r="B124" s="125">
         <v>10000</v>
       </c>
       <c r="C124" s="80">
@@ -5653,8 +5673,8 @@
       <c r="Y124" s="5"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="95"/>
-      <c r="B125" s="98"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="126"/>
       <c r="C125" s="11">
         <v>20</v>
       </c>
@@ -5682,8 +5702,8 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="95"/>
-      <c r="B126" s="98"/>
+      <c r="A126" s="107"/>
+      <c r="B126" s="126"/>
       <c r="C126" s="11">
         <v>300</v>
       </c>
@@ -5711,8 +5731,8 @@
       <c r="Y126" s="5"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="95"/>
-      <c r="B127" s="98"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="126"/>
       <c r="C127" s="11">
         <v>500</v>
       </c>
@@ -5740,8 +5760,8 @@
       <c r="Y127" s="5"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
-      <c r="B128" s="98"/>
+      <c r="A128" s="107"/>
+      <c r="B128" s="126"/>
       <c r="C128" s="11">
         <v>1000</v>
       </c>
@@ -5769,8 +5789,8 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A129" s="95"/>
-      <c r="B129" s="98"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="126"/>
       <c r="C129" s="81">
         <v>2000</v>
       </c>
@@ -5798,8 +5818,8 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="96"/>
-      <c r="B130" s="99"/>
+      <c r="A130" s="148"/>
+      <c r="B130" s="127"/>
       <c r="C130" s="12">
         <v>4900</v>
       </c>
@@ -5854,119 +5874,119 @@
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A132" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E132" s="109"/>
-      <c r="F132" s="109"/>
-      <c r="G132" s="109"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="109"/>
-      <c r="J132" s="109"/>
-      <c r="K132" s="109"/>
-      <c r="L132" s="109"/>
-      <c r="M132" s="110"/>
-      <c r="N132" s="111"/>
-      <c r="O132" s="111"/>
-      <c r="P132" s="111"/>
-      <c r="Q132" s="111"/>
-      <c r="R132" s="111"/>
-      <c r="S132" s="111"/>
-      <c r="T132" s="111"/>
-      <c r="U132" s="111"/>
-      <c r="V132" s="111"/>
-      <c r="W132" s="111"/>
-      <c r="X132" s="111"/>
-      <c r="Y132" s="111"/>
+      <c r="A132" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="114"/>
+      <c r="N132" s="118"/>
+      <c r="O132" s="118"/>
+      <c r="P132" s="118"/>
+      <c r="Q132" s="118"/>
+      <c r="R132" s="118"/>
+      <c r="S132" s="118"/>
+      <c r="T132" s="118"/>
+      <c r="U132" s="118"/>
+      <c r="V132" s="118"/>
+      <c r="W132" s="118"/>
+      <c r="X132" s="118"/>
+      <c r="Y132" s="118"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A133" s="95"/>
-      <c r="B133" s="103"/>
-      <c r="C133" s="106"/>
-      <c r="D133" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E133" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G133" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="H133" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I133" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="J133" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="K133" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="L133" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="M133" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="N133" s="122"/>
-      <c r="O133" s="93"/>
-      <c r="P133" s="123"/>
-      <c r="Q133" s="93"/>
-      <c r="R133" s="123"/>
-      <c r="S133" s="93"/>
-      <c r="T133" s="123"/>
-      <c r="U133" s="93"/>
-      <c r="V133" s="124"/>
-      <c r="W133" s="93"/>
-      <c r="X133" s="93"/>
-      <c r="Y133" s="93"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="131"/>
+      <c r="C133" s="110"/>
+      <c r="D133" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I133" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="K133" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M133" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="N133" s="140"/>
+      <c r="O133" s="141"/>
+      <c r="P133" s="133"/>
+      <c r="Q133" s="141"/>
+      <c r="R133" s="133"/>
+      <c r="S133" s="141"/>
+      <c r="T133" s="133"/>
+      <c r="U133" s="141"/>
+      <c r="V133" s="142"/>
+      <c r="W133" s="141"/>
+      <c r="X133" s="141"/>
+      <c r="Y133" s="141"/>
     </row>
     <row r="134" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="101"/>
-      <c r="B134" s="104"/>
-      <c r="C134" s="107"/>
-      <c r="D134" s="113"/>
-      <c r="E134" s="115"/>
-      <c r="F134" s="117"/>
-      <c r="G134" s="115"/>
-      <c r="H134" s="119"/>
-      <c r="I134" s="115"/>
-      <c r="J134" s="119"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="115"/>
-      <c r="M134" s="121"/>
-      <c r="N134" s="122"/>
-      <c r="O134" s="93"/>
-      <c r="P134" s="123"/>
-      <c r="Q134" s="93"/>
-      <c r="R134" s="123"/>
-      <c r="S134" s="93"/>
-      <c r="T134" s="123"/>
-      <c r="U134" s="93"/>
-      <c r="V134" s="124"/>
-      <c r="W134" s="93"/>
-      <c r="X134" s="93"/>
-      <c r="Y134" s="93"/>
+      <c r="A134" s="108"/>
+      <c r="B134" s="132"/>
+      <c r="C134" s="111"/>
+      <c r="D134" s="137"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="135"/>
+      <c r="G134" s="120"/>
+      <c r="H134" s="139"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="139"/>
+      <c r="K134" s="120"/>
+      <c r="L134" s="120"/>
+      <c r="M134" s="129"/>
+      <c r="N134" s="140"/>
+      <c r="O134" s="141"/>
+      <c r="P134" s="133"/>
+      <c r="Q134" s="141"/>
+      <c r="R134" s="133"/>
+      <c r="S134" s="141"/>
+      <c r="T134" s="133"/>
+      <c r="U134" s="141"/>
+      <c r="V134" s="142"/>
+      <c r="W134" s="141"/>
+      <c r="X134" s="141"/>
+      <c r="Y134" s="141"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A135" s="94">
+      <c r="A135" s="147">
         <v>4</v>
       </c>
-      <c r="B135" s="97">
+      <c r="B135" s="125">
         <v>10000</v>
       </c>
       <c r="C135" s="80">
@@ -5996,8 +6016,8 @@
       <c r="Y135" s="76"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A136" s="95"/>
-      <c r="B136" s="98"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="126"/>
       <c r="C136" s="11">
         <v>20</v>
       </c>
@@ -6025,8 +6045,8 @@
       <c r="Y136" s="76"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A137" s="95"/>
-      <c r="B137" s="98"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="126"/>
       <c r="C137" s="11">
         <v>300</v>
       </c>
@@ -6054,8 +6074,8 @@
       <c r="Y137" s="76"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A138" s="95"/>
-      <c r="B138" s="98"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="126"/>
       <c r="C138" s="11">
         <v>500</v>
       </c>
@@ -6083,8 +6103,8 @@
       <c r="Y138" s="76"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A139" s="95"/>
-      <c r="B139" s="98"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="126"/>
       <c r="C139" s="11">
         <v>1000</v>
       </c>
@@ -6112,8 +6132,8 @@
       <c r="Y139" s="76"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A140" s="95"/>
-      <c r="B140" s="98"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="126"/>
       <c r="C140" s="81">
         <v>2000</v>
       </c>
@@ -6141,8 +6161,8 @@
       <c r="Y140" s="76"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="96"/>
-      <c r="B141" s="99"/>
+      <c r="A141" s="148"/>
+      <c r="B141" s="127"/>
       <c r="C141" s="12">
         <v>4900</v>
       </c>
@@ -6198,7 +6218,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
@@ -6206,38 +6226,38 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="141"/>
-      <c r="C147" s="141"/>
-      <c r="D147" s="141"/>
-      <c r="E147" s="141"/>
-      <c r="F147" s="141"/>
-      <c r="G147" s="141"/>
-      <c r="H147" s="141"/>
-      <c r="I147" s="141"/>
-      <c r="J147" s="141"/>
-      <c r="K147" s="141"/>
-      <c r="L147" s="141"/>
-      <c r="M147" s="141"/>
-      <c r="N147" s="141"/>
-      <c r="O147" s="141"/>
-      <c r="P147" s="141"/>
-      <c r="Q147" s="141"/>
-      <c r="R147" s="141"/>
-      <c r="S147" s="141"/>
-      <c r="T147" s="141"/>
-      <c r="U147" s="142"/>
+      <c r="A147" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="94"/>
+      <c r="C147" s="94"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="94"/>
+      <c r="F147" s="94"/>
+      <c r="G147" s="94"/>
+      <c r="H147" s="94"/>
+      <c r="I147" s="94"/>
+      <c r="J147" s="94"/>
+      <c r="K147" s="94"/>
+      <c r="L147" s="94"/>
+      <c r="M147" s="94"/>
+      <c r="N147" s="94"/>
+      <c r="O147" s="94"/>
+      <c r="P147" s="94"/>
+      <c r="Q147" s="94"/>
+      <c r="R147" s="94"/>
+      <c r="S147" s="94"/>
+      <c r="T147" s="94"/>
+      <c r="U147" s="95"/>
       <c r="V147" s="73"/>
       <c r="W147" s="73"/>
       <c r="X147" s="73"/>
@@ -6245,67 +6265,67 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="69" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B148" s="70" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D148" s="71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F148" s="71" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H148" s="71" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J148" s="71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L148" s="71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N148" s="71" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P148" s="71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R148" s="71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S148" s="71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T148" s="71" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U148" s="72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
@@ -6314,67 +6334,67 @@
     </row>
     <row r="149" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T149" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U149" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V149" s="75"/>
       <c r="W149" s="75"/>
@@ -6440,31 +6460,31 @@
       <c r="Y151" s="78"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I154" s="139" t="s">
-        <v>29</v>
-      </c>
-      <c r="J154" s="139"/>
-      <c r="K154" s="139"/>
-      <c r="L154" s="139"/>
+      <c r="I154" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="J154" s="146"/>
+      <c r="K154" s="146"/>
+      <c r="L154" s="146"/>
       <c r="M154" s="34"/>
       <c r="N154" s="34"/>
       <c r="O154" s="34"/>
       <c r="P154" s="34"/>
       <c r="Q154" s="34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R154" s="34"/>
       <c r="S154" s="34"/>
       <c r="T154" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J156" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="K156" s="139"/>
-      <c r="L156" s="139"/>
+      <c r="J156" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="K156" s="146"/>
+      <c r="L156" s="146"/>
       <c r="M156" s="34"/>
       <c r="N156" s="34"/>
       <c r="O156" s="34"/>
@@ -6473,6 +6493,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="W133:W134"/>
+    <mergeCell ref="X133:X134"/>
+    <mergeCell ref="Y133:Y134"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:M132"/>
+    <mergeCell ref="N132:Y132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="N133:N134"/>
+    <mergeCell ref="O133:O134"/>
+    <mergeCell ref="P133:P134"/>
+    <mergeCell ref="Q133:Q134"/>
+    <mergeCell ref="R133:R134"/>
+    <mergeCell ref="S133:S134"/>
+    <mergeCell ref="T133:T134"/>
+    <mergeCell ref="U133:U134"/>
+    <mergeCell ref="V133:V134"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="U122:U123"/>
+    <mergeCell ref="V122:V123"/>
+    <mergeCell ref="W122:W123"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="U111:U112"/>
+    <mergeCell ref="V111:V112"/>
+    <mergeCell ref="W111:W112"/>
+    <mergeCell ref="X111:X112"/>
+    <mergeCell ref="Y111:Y112"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="N121:W121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:M110"/>
+    <mergeCell ref="N110:Y110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="S111:S112"/>
+    <mergeCell ref="T111:T112"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="T100:T101"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="N99:W99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="U100:U101"/>
+    <mergeCell ref="V100:V101"/>
+    <mergeCell ref="W100:W101"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="N88:Y88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="U78:U79"/>
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="W78:W79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="N77:W77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="Y67:Y68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="N55:W55"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="N66:Y66"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="U56:U57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="R56:R57"/>
     <mergeCell ref="A147:U147"/>
     <mergeCell ref="A2:Y2"/>
     <mergeCell ref="A1:Y1"/>
@@ -6497,236 +6747,6 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="N55:W55"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="N66:Y66"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="U56:U57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="Y67:Y68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="W78:W79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="R78:R79"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="N77:W77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="T78:T79"/>
-    <mergeCell ref="U78:U79"/>
-    <mergeCell ref="V78:V79"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="N88:Y88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="N99:W99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="U100:U101"/>
-    <mergeCell ref="V100:V101"/>
-    <mergeCell ref="W100:W101"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="S111:S112"/>
-    <mergeCell ref="T111:T112"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="T100:T101"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="N110:Y110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="W122:W123"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="U111:U112"/>
-    <mergeCell ref="V111:V112"/>
-    <mergeCell ref="W111:W112"/>
-    <mergeCell ref="X111:X112"/>
-    <mergeCell ref="Y111:Y112"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="N121:W121"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="R133:R134"/>
-    <mergeCell ref="S133:S134"/>
-    <mergeCell ref="T133:T134"/>
-    <mergeCell ref="U133:U134"/>
-    <mergeCell ref="V133:V134"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="U122:U123"/>
-    <mergeCell ref="V122:V123"/>
-    <mergeCell ref="W133:W134"/>
-    <mergeCell ref="X133:X134"/>
-    <mergeCell ref="Y133:Y134"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:M132"/>
-    <mergeCell ref="N132:Y132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="N133:N134"/>
-    <mergeCell ref="O133:O134"/>
-    <mergeCell ref="P133:P134"/>
-    <mergeCell ref="Q133:Q134"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
